--- a/data/processed/rebalancing_20210601_updated.xlsx
+++ b/data/processed/rebalancing_20210601_updated.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msyeom/iCloud Drive (Archive)/Documents/Finance/Work/kisra/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B681250-5517-764E-8BBC-C85D61AFFD91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A608FD-EB3C-A442-B845-23389EEA18F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="A001" sheetId="2" r:id="rId2"/>
-    <sheet name="A002" sheetId="3" r:id="rId3"/>
-    <sheet name="A003" sheetId="4" r:id="rId4"/>
-    <sheet name="A004" sheetId="5" r:id="rId5"/>
-    <sheet name="A005" sheetId="6" r:id="rId6"/>
-    <sheet name="A006" sheetId="7" r:id="rId7"/>
-    <sheet name="A007" sheetId="8" r:id="rId8"/>
-    <sheet name="A008" sheetId="9" r:id="rId9"/>
-    <sheet name="A009" sheetId="10" r:id="rId10"/>
+    <sheet name="summary1-9" sheetId="11" r:id="rId2"/>
+    <sheet name="A001" sheetId="2" r:id="rId3"/>
+    <sheet name="A002" sheetId="3" r:id="rId4"/>
+    <sheet name="A003" sheetId="4" r:id="rId5"/>
+    <sheet name="A004" sheetId="5" r:id="rId6"/>
+    <sheet name="A005" sheetId="6" r:id="rId7"/>
+    <sheet name="A006" sheetId="7" r:id="rId8"/>
+    <sheet name="A007" sheetId="8" r:id="rId9"/>
+    <sheet name="A008" sheetId="9" r:id="rId10"/>
+    <sheet name="A009" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="83">
   <si>
     <t>date</t>
   </si>
@@ -257,6 +258,33 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>A009</t>
   </si>
 </sst>
 </file>
@@ -339,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,6 +387,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1094,11 +1134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+      <selection activeCell="A2" sqref="A2:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1186,7 @@
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>61</v>
@@ -1155,13 +1195,13 @@
         <v>62</v>
       </c>
       <c r="D2" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="F2" s="6">
-        <v>318420</v>
+        <v>247660</v>
       </c>
       <c r="G2" s="5">
         <v>24</v>
@@ -1173,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K2" s="6">
         <v>17690</v>
       </c>
       <c r="L2" s="6">
-        <v>318420</v>
+        <v>247660</v>
       </c>
       <c r="M2" s="5">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>32</v>
@@ -1196,13 +1236,13 @@
         <v>33</v>
       </c>
       <c r="D3" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="F3" s="6">
-        <v>302250</v>
+        <v>241800</v>
       </c>
       <c r="G3" s="5">
         <v>24</v>
@@ -1214,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K3" s="6">
         <v>12090</v>
       </c>
       <c r="L3" s="6">
-        <v>302250</v>
+        <v>241800</v>
       </c>
       <c r="M3" s="5">
-        <v>23</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>66</v>
@@ -1237,13 +1277,13 @@
         <v>67</v>
       </c>
       <c r="D4" s="5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="F4" s="6">
-        <v>315905</v>
+        <v>233495</v>
       </c>
       <c r="G4" s="5">
         <v>24</v>
@@ -1255,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K4" s="6">
         <v>13735</v>
       </c>
       <c r="L4" s="6">
-        <v>315905</v>
+        <v>233495</v>
       </c>
       <c r="M4" s="5">
-        <v>24</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>68</v>
@@ -1278,13 +1318,13 @@
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5">
-        <v>12.4</v>
+        <v>14.1</v>
       </c>
       <c r="F5" s="6">
-        <v>162600</v>
+        <v>142275</v>
       </c>
       <c r="G5" s="5">
         <v>13.6</v>
@@ -1296,21 +1336,21 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="6">
         <v>20325</v>
       </c>
       <c r="L5" s="6">
-        <v>162600</v>
+        <v>142275</v>
       </c>
       <c r="M5" s="5">
-        <v>12.4</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>17</v>
@@ -1319,13 +1359,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>8.8000000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="F6" s="6">
-        <v>115980</v>
+        <v>57990</v>
       </c>
       <c r="G6" s="5">
         <v>6</v>
@@ -1337,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="6">
         <v>57990</v>
       </c>
       <c r="L6" s="6">
-        <v>115980</v>
+        <v>57990</v>
       </c>
       <c r="M6" s="5">
-        <v>8.8000000000000007</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
@@ -1359,14 +1399,14 @@
       <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5">
-        <v>80</v>
+      <c r="D7" s="6">
+        <v>2575</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>80</v>
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2575</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -1377,22 +1417,22 @@
       <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
-        <v>80</v>
+      <c r="J7" s="6">
+        <v>2575</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="5">
-        <v>80</v>
+      <c r="L7" s="6">
+        <v>2575</v>
       </c>
       <c r="M7" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>54</v>
@@ -1401,13 +1441,13 @@
         <v>55</v>
       </c>
       <c r="D8" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="F8" s="6">
-        <v>100520</v>
+        <v>86160</v>
       </c>
       <c r="G8" s="5">
         <v>8.4</v>
@@ -1419,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="6">
         <v>14360</v>
       </c>
       <c r="L8" s="6">
-        <v>100520</v>
+        <v>86160</v>
       </c>
       <c r="M8" s="5">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -1437,12 +1477,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M11"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1490,192 +1530,192 @@
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="5">
         <v>18</v>
       </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
       <c r="E2" s="5">
-        <v>16.600000000000001</v>
+        <v>24.2</v>
       </c>
       <c r="F2" s="6">
-        <v>115980</v>
+        <v>318420</v>
       </c>
       <c r="G2" s="5">
         <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K2" s="6">
-        <v>57990</v>
+        <v>17690</v>
       </c>
       <c r="L2" s="6">
-        <v>115980</v>
+        <v>318420</v>
       </c>
       <c r="M2" s="5">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="6">
+        <v>302250</v>
       </c>
       <c r="G3" s="5">
-        <v>7.4</v>
+        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K3" s="6">
-        <v>108305</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
+        <v>12090</v>
+      </c>
+      <c r="L3" s="6">
+        <v>302250</v>
       </c>
       <c r="M3" s="5">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="5">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>14.9</v>
-      </c>
       <c r="F4" s="6">
-        <v>104470</v>
+        <v>315905</v>
       </c>
       <c r="G4" s="5">
-        <v>8.6</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K4" s="6">
-        <v>104470</v>
+        <v>13735</v>
       </c>
       <c r="L4" s="6">
-        <v>104470</v>
+        <v>315905</v>
       </c>
       <c r="M4" s="5">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D5" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
-        <v>28.9</v>
+        <v>12.4</v>
       </c>
       <c r="F5" s="6">
-        <v>202610</v>
+        <v>162600</v>
       </c>
       <c r="G5" s="5">
-        <v>24</v>
+        <v>13.6</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K5" s="6">
-        <v>101305</v>
+        <v>20325</v>
       </c>
       <c r="L5" s="6">
-        <v>202610</v>
+        <v>162600</v>
       </c>
       <c r="M5" s="5">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>28.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F6" s="6">
-        <v>202300</v>
+        <v>115980</v>
       </c>
       <c r="G6" s="5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1684,232 +1724,3134 @@
         <v>2</v>
       </c>
       <c r="K6" s="6">
-        <v>101150</v>
+        <v>57990</v>
       </c>
       <c r="L6" s="6">
-        <v>202300</v>
+        <v>115980</v>
       </c>
       <c r="M6" s="5">
-        <v>28.9</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5">
+        <v>80</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>80</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>80</v>
+      </c>
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>43005</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>43005</v>
-      </c>
-      <c r="L7" s="6">
-        <v>43005</v>
+      <c r="L7" s="5">
+        <v>80</v>
       </c>
       <c r="M7" s="5">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="F8" s="6">
-        <v>18610</v>
+        <v>100520</v>
       </c>
       <c r="G8" s="5">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K8" s="6">
-        <v>18610</v>
+        <v>14360</v>
       </c>
       <c r="L8" s="6">
-        <v>18610</v>
+        <v>100520</v>
       </c>
       <c r="M8" s="5">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="F9" s="6">
-        <v>12090</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>12090</v>
-      </c>
-      <c r="L9" s="6">
-        <v>12090</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1640</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1640</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1640</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1640</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>14360</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD26418-CCDB-9C41-AE85-4BFE925EE054}">
+  <dimension ref="A1:N79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12">
+        <v>57990</v>
+      </c>
+      <c r="K2" s="12">
+        <v>115980</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.165519012994056</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12">
+        <v>108305</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12">
+        <v>104470</v>
+      </c>
+      <c r="K4" s="12">
+        <v>104470</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.1490926994955081</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12">
+        <v>101305</v>
+      </c>
+      <c r="K5" s="12">
+        <v>202610</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.28915164013386518</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12">
+        <v>101150</v>
+      </c>
+      <c r="K6" s="12">
+        <v>202300</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.2887092285626619</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12">
+        <v>43005</v>
+      </c>
+      <c r="K7" s="12">
+        <v>43005</v>
+      </c>
+      <c r="L7" s="11">
+        <v>6.1373901998701311E-2</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12">
+        <v>18610</v>
+      </c>
+      <c r="K8" s="12">
+        <v>18610</v>
+      </c>
+      <c r="L8" s="11">
+        <v>2.6558965613203846E-2</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12">
+        <v>12090</v>
+      </c>
+      <c r="K9" s="12">
+        <v>12090</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1.7254051276928237E-2</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1640</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1640</v>
+      </c>
+      <c r="L10" s="11">
+        <v>2.3404999250754596E-3</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12">
+        <v>14360</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12">
+        <v>57990</v>
+      </c>
+      <c r="K12" s="12">
+        <v>231960</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.2318151155527795</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12">
+        <v>101305</v>
+      </c>
+      <c r="K13" s="12">
+        <v>202610</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.20248344784509681</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12">
+        <v>101150</v>
+      </c>
+      <c r="K14" s="12">
+        <v>202300</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.20217364147407871</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12">
+        <v>108305</v>
+      </c>
+      <c r="K15" s="12">
+        <v>108305</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.10823735165521549</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12">
+        <v>104470</v>
+      </c>
+      <c r="K16" s="12">
+        <v>104470</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.1044047470331043</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12">
+        <v>43005</v>
+      </c>
+      <c r="K17" s="12">
+        <v>43005</v>
+      </c>
+      <c r="L17" s="11">
+        <v>4.2978138663335413E-2</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12">
+        <v>18610</v>
+      </c>
+      <c r="K18" s="12">
+        <v>37220</v>
+      </c>
+      <c r="L18" s="11">
+        <v>3.719675202998126E-2</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12">
+        <v>12090</v>
+      </c>
+      <c r="K19" s="12">
+        <v>24180</v>
+      </c>
+      <c r="L19" s="11">
+        <v>2.4164896939412869E-2</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="12">
+        <v>17855</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>17855</v>
+      </c>
+      <c r="L20" s="11">
+        <v>1.7843847595252968E-2</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="10">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12">
+        <v>14360</v>
+      </c>
+      <c r="K21" s="12">
+        <v>28720</v>
+      </c>
+      <c r="L21" s="11">
+        <v>2.8702061211742663E-2</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="10">
+        <v>3</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12">
+        <v>101305</v>
+      </c>
+      <c r="K22" s="12">
+        <v>303915</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.23348532049829254</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12">
+        <v>101150</v>
+      </c>
+      <c r="K23" s="12">
+        <v>303450</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.23312808023693096</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="10">
+        <v>5</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12">
+        <v>57990</v>
+      </c>
+      <c r="K24" s="12">
+        <v>289950</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.22275658877804624</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12">
+        <v>108305</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="10">
+        <v>2</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12">
+        <v>104470</v>
+      </c>
+      <c r="K26" s="12">
+        <v>208940</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.16051995743847208</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12">
+        <v>43005</v>
+      </c>
+      <c r="K27" s="12">
+        <v>86010</v>
+      </c>
+      <c r="L27" s="11">
+        <v>6.6077924472494415E-2</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="10">
+        <v>3</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12">
+        <v>18610</v>
+      </c>
+      <c r="K28" s="12">
+        <v>55830</v>
+      </c>
+      <c r="L28" s="11">
+        <v>4.2891879122187691E-2</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12">
+        <v>12090</v>
+      </c>
+      <c r="K29" s="12">
+        <v>24180</v>
+      </c>
+      <c r="L29" s="11">
+        <v>1.8576493590802406E-2</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="10">
+        <v>650</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>650</v>
+      </c>
+      <c r="L30" s="11">
+        <v>4.9936810727963465E-4</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12">
+        <v>14360</v>
+      </c>
+      <c r="K31" s="12">
+        <v>28720</v>
+      </c>
+      <c r="L31" s="11">
+        <v>2.2064387755494009E-2</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="10">
+        <v>3</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12">
+        <v>57990</v>
+      </c>
+      <c r="K32" s="12">
+        <v>173970</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.24680446594504107</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="10">
+        <v>3</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12">
+        <v>43005</v>
+      </c>
+      <c r="K33" s="12">
+        <v>129015</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.18302855764729248</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12">
+        <v>119330</v>
+      </c>
+      <c r="K34" s="12">
+        <v>119330</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.16928882520676986</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12">
+        <v>108305</v>
+      </c>
+      <c r="K35" s="12">
+        <v>108305</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.15364808693555024</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="10">
+        <v>4</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12">
+        <v>18610</v>
+      </c>
+      <c r="K36" s="12">
+        <v>74440</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0.10560512987842074</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="10">
+        <v>3</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12">
+        <v>17690</v>
+      </c>
+      <c r="K37" s="12">
+        <v>53070</v>
+      </c>
+      <c r="L37" s="11">
+        <v>7.5288342862006835E-2</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12">
+        <v>12090</v>
+      </c>
+      <c r="K38" s="12">
+        <v>12090</v>
+      </c>
+      <c r="L38" s="11">
+        <v>1.7151612308303425E-2</v>
+      </c>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="12">
+        <v>5950</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="10">
+        <v>1</v>
+      </c>
+      <c r="K39" s="12">
+        <v>5950</v>
+      </c>
+      <c r="L39" s="11">
+        <v>8.4410333527217014E-3</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="10">
+        <v>2</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12">
+        <v>14360</v>
+      </c>
+      <c r="K40" s="12">
+        <v>28720</v>
+      </c>
+      <c r="L40" s="11">
+        <v>4.0743945863893655E-2</v>
+      </c>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="10">
+        <v>2</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12">
+        <v>119330</v>
+      </c>
+      <c r="K41" s="12">
+        <v>238660</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0.23691041657360393</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="10">
+        <v>4</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12">
+        <v>57990</v>
+      </c>
+      <c r="K42" s="12">
+        <v>231960</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0.23025953334623803</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="10">
+        <v>4</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12">
+        <v>43005</v>
+      </c>
+      <c r="K43" s="12">
+        <v>172020</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0.17075894518977353</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="10">
+        <v>6</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12">
+        <v>18610</v>
+      </c>
+      <c r="K44" s="12">
+        <v>111660</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0.11084143599517562</v>
+      </c>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12">
+        <v>108305</v>
+      </c>
+      <c r="K45" s="12">
+        <v>108305</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0.10751103103580062</v>
+      </c>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="10">
+        <v>5</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12">
+        <v>17690</v>
+      </c>
+      <c r="K46" s="12">
+        <v>88450</v>
+      </c>
+      <c r="L46" s="11">
+        <v>8.7801585292614046E-2</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="10">
+        <v>2</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12">
+        <v>12090</v>
+      </c>
+      <c r="K47" s="12">
+        <v>24180</v>
+      </c>
+      <c r="L47" s="11">
+        <v>2.4002739766822018E-2</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="12">
+        <v>3430</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="10">
+        <v>1</v>
+      </c>
+      <c r="K48" s="12">
+        <v>3430</v>
+      </c>
+      <c r="L48" s="11">
+        <v>3.4048551447559772E-3</v>
+      </c>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="10">
+        <v>2</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12">
+        <v>14360</v>
+      </c>
+      <c r="K49" s="12">
+        <v>28720</v>
+      </c>
+      <c r="L49" s="11">
+        <v>2.8509457655216227E-2</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="10">
+        <v>3</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12">
+        <v>119330</v>
+      </c>
+      <c r="K50" s="12">
+        <v>357990</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0.27348879848736607</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="10">
+        <v>5</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="12">
+        <v>57990</v>
+      </c>
+      <c r="K51" s="12">
+        <v>289950</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0.22150919612674039</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="10">
+        <v>5</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12">
+        <v>43005</v>
+      </c>
+      <c r="K52" s="12">
+        <v>215025</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0.1642697530510514</v>
+      </c>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="10">
+        <v>8</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12">
+        <v>18610</v>
+      </c>
+      <c r="K53" s="12">
+        <v>148880</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0.1137378483164308</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="10">
+        <v>6</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12">
+        <v>17690</v>
+      </c>
+      <c r="K54" s="12">
+        <v>106140</v>
+      </c>
+      <c r="L54" s="11">
+        <v>8.108634618690197E-2</v>
+      </c>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12">
+        <v>108305</v>
+      </c>
+      <c r="K55" s="12">
+        <v>108305</v>
+      </c>
+      <c r="L55" s="11">
+        <v>8.2740312076242856E-2</v>
+      </c>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="10">
+        <v>3</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12">
+        <v>12090</v>
+      </c>
+      <c r="K56" s="12">
+        <v>36270</v>
+      </c>
+      <c r="L56" s="11">
+        <v>2.7708703374777974E-2</v>
+      </c>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="12">
+        <v>3335</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="10">
+        <v>1</v>
+      </c>
+      <c r="K57" s="12">
+        <v>3335</v>
+      </c>
+      <c r="L57" s="11">
+        <v>2.5477950304627667E-3</v>
+      </c>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="10">
+        <v>3</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="12">
+        <v>14360</v>
+      </c>
+      <c r="K58" s="12">
+        <v>43080</v>
+      </c>
+      <c r="L58" s="11">
+        <v>3.2911247350025784E-2</v>
+      </c>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="10">
+        <v>14</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="12">
+        <v>12090</v>
+      </c>
+      <c r="K59" s="12">
+        <v>169260</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0.23875417883288899</v>
+      </c>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="10">
+        <v>12</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="12">
+        <v>13735</v>
+      </c>
+      <c r="K60" s="12">
+        <v>164820</v>
+      </c>
+      <c r="L60" s="11">
+        <v>0.23249121916127122</v>
+      </c>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="10">
+        <v>10</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="12">
+        <v>17690</v>
+      </c>
+      <c r="K61" s="12">
+        <v>176900</v>
+      </c>
+      <c r="L61" s="11">
+        <v>0.24953098331287998</v>
+      </c>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="10">
+        <v>4</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="12">
+        <v>20325</v>
+      </c>
+      <c r="K62" s="12">
+        <v>81300</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0.11467986966273115</v>
+      </c>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="10">
+        <v>1</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="12">
+        <v>57990</v>
+      </c>
+      <c r="K63" s="12">
+        <v>57990</v>
+      </c>
+      <c r="L63" s="11">
+        <v>8.1799331386737756E-2</v>
+      </c>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1220</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="10">
+        <v>1</v>
+      </c>
+      <c r="K64" s="12">
+        <v>1220</v>
+      </c>
+      <c r="L64" s="11">
+        <v>1.7209033331922756E-3</v>
+      </c>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="10">
+        <v>4</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="12">
+        <v>14360</v>
+      </c>
+      <c r="K65" s="12">
+        <v>57440</v>
+      </c>
+      <c r="L65" s="11">
+        <v>8.1023514310298625E-2</v>
+      </c>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="10">
+        <v>14</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="12">
+        <v>17690</v>
+      </c>
+      <c r="K66" s="12">
+        <v>247660</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0.24473420260782347</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="10">
+        <v>20</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="12">
+        <v>12090</v>
+      </c>
+      <c r="K67" s="12">
+        <v>241800</v>
+      </c>
+      <c r="L67" s="11">
+        <v>0.23894343127905884</v>
+      </c>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="10">
+        <v>17</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="12">
+        <v>13735</v>
+      </c>
+      <c r="K68" s="12">
+        <v>233495</v>
+      </c>
+      <c r="L68" s="11">
+        <v>0.23073654460919704</v>
+      </c>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" s="10">
+        <v>7</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="12">
+        <v>20325</v>
+      </c>
+      <c r="K69" s="12">
+        <v>142275</v>
+      </c>
+      <c r="L69" s="11">
+        <v>0.14059419638225021</v>
+      </c>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="10">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="12">
+        <v>57990</v>
+      </c>
+      <c r="K70" s="12">
+        <v>57990</v>
+      </c>
+      <c r="L70" s="11">
+        <v>5.7304919685163866E-2</v>
+      </c>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="12">
+        <v>2575</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="10">
+        <v>1</v>
+      </c>
+      <c r="K71" s="12">
+        <v>2575</v>
+      </c>
+      <c r="L71" s="11">
+        <v>2.5445795514622686E-3</v>
+      </c>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" s="10">
+        <v>6</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="12">
+        <v>14360</v>
+      </c>
+      <c r="K72" s="12">
+        <v>86160</v>
+      </c>
+      <c r="L72" s="11">
+        <v>8.5142125885044301E-2</v>
+      </c>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73" s="10">
+        <v>18</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="12">
+        <v>17690</v>
+      </c>
+      <c r="K73" s="12">
+        <v>318420</v>
+      </c>
+      <c r="L73" s="11">
+        <v>0.2420055405451623</v>
+      </c>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" s="10">
+        <v>25</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="12">
+        <v>12090</v>
+      </c>
+      <c r="K74" s="12">
+        <v>302250</v>
+      </c>
+      <c r="L74" s="11">
+        <v>0.22971601855968626</v>
+      </c>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" s="10">
+        <v>23</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="12">
+        <v>13735</v>
+      </c>
+      <c r="K75" s="12">
+        <v>315905</v>
+      </c>
+      <c r="L75" s="11">
+        <v>0.24009409046517019</v>
+      </c>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G76" s="10">
+        <v>8</v>
+      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="12">
+        <v>20325</v>
+      </c>
+      <c r="K76" s="12">
+        <v>162600</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0.12357923777602974</v>
+      </c>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="10">
+        <v>2</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="12">
+        <v>57990</v>
+      </c>
+      <c r="K77" s="12">
+        <v>115980</v>
+      </c>
+      <c r="L77" s="11">
+        <v>8.8147109454267708E-2</v>
+      </c>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="10">
+        <v>80</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="10">
+        <v>1</v>
+      </c>
+      <c r="K78" s="10">
+        <v>80</v>
+      </c>
+      <c r="L78" s="11">
+        <v>6.0801593001736646E-5</v>
+      </c>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>44349</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" s="10">
+        <v>7</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="12">
+        <v>14360</v>
+      </c>
+      <c r="K79" s="12">
+        <v>100520</v>
+      </c>
+      <c r="L79" s="11">
+        <v>7.6397201606682091E-2</v>
+      </c>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1957,7 +4899,7 @@
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -1966,13 +4908,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
-        <v>23.2</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F2" s="6">
-        <v>231960</v>
+        <v>115980</v>
       </c>
       <c r="G2" s="5">
         <v>24</v>
@@ -1984,39 +4926,39 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" s="6">
         <v>57990</v>
       </c>
       <c r="L2" s="6">
-        <v>231960</v>
+        <v>115980</v>
       </c>
       <c r="M2" s="5">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>20.2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>202610</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>24</v>
+        <v>7.4</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>52</v>
@@ -2025,39 +4967,39 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>101305</v>
-      </c>
-      <c r="L3" s="6">
-        <v>202610</v>
+        <v>108305</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
       </c>
       <c r="M3" s="5">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>20.2</v>
+        <v>14.9</v>
       </c>
       <c r="F4" s="6">
-        <v>202300</v>
+        <v>104470</v>
       </c>
       <c r="G4" s="5">
-        <v>24</v>
+        <v>8.6</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>52</v>
@@ -2066,39 +5008,39 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>104470</v>
+      </c>
+      <c r="L4" s="6">
+        <v>104470</v>
+      </c>
+      <c r="M4" s="5">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="K4" s="6">
-        <v>101150</v>
-      </c>
-      <c r="L4" s="6">
-        <v>202300</v>
-      </c>
-      <c r="M4" s="5">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
       <c r="E5" s="5">
-        <v>10.8</v>
+        <v>28.9</v>
       </c>
       <c r="F5" s="6">
-        <v>108305</v>
+        <v>202610</v>
       </c>
       <c r="G5" s="5">
-        <v>7.4</v>
+        <v>24</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>52</v>
@@ -2107,39 +5049,39 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="6">
-        <v>108305</v>
+        <v>101305</v>
       </c>
       <c r="L5" s="6">
-        <v>108305</v>
+        <v>202610</v>
       </c>
       <c r="M5" s="5">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>28.9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>202300</v>
+      </c>
+      <c r="G6" s="5">
         <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10.4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>104470</v>
-      </c>
-      <c r="G6" s="5">
-        <v>8.6</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>52</v>
@@ -2148,21 +5090,21 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="6">
-        <v>104470</v>
+        <v>101150</v>
       </c>
       <c r="L6" s="6">
-        <v>104470</v>
+        <v>202300</v>
       </c>
       <c r="M6" s="5">
-        <v>10.4</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>27</v>
@@ -2174,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="F7" s="6">
         <v>43005</v>
@@ -2198,12 +5140,12 @@
         <v>43005</v>
       </c>
       <c r="M7" s="5">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>29</v>
@@ -2212,13 +5154,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="F8" s="6">
-        <v>37220</v>
+        <v>18610</v>
       </c>
       <c r="G8" s="5">
         <v>4</v>
@@ -2230,21 +5172,21 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="6">
         <v>18610</v>
       </c>
       <c r="L8" s="6">
-        <v>37220</v>
+        <v>18610</v>
       </c>
       <c r="M8" s="5">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>32</v>
@@ -2253,13 +5195,13 @@
         <v>33</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="F9" s="6">
-        <v>24180</v>
+        <v>12090</v>
       </c>
       <c r="G9" s="5">
         <v>2</v>
@@ -2271,21 +5213,21 @@
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6">
         <v>12090</v>
       </c>
       <c r="L9" s="6">
-        <v>24180</v>
+        <v>12090</v>
       </c>
       <c r="M9" s="5">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
@@ -2294,13 +5236,13 @@
         <v>36</v>
       </c>
       <c r="D10" s="6">
-        <v>17855</v>
+        <v>1640</v>
       </c>
       <c r="E10" s="5">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="6">
-        <v>17855</v>
+        <v>1640</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2312,21 +5254,21 @@
         <v>0</v>
       </c>
       <c r="J10" s="6">
-        <v>17855</v>
+        <v>1640</v>
       </c>
       <c r="K10" s="5">
         <v>1</v>
       </c>
       <c r="L10" s="6">
-        <v>17855</v>
+        <v>1640</v>
       </c>
       <c r="M10" s="5">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>54</v>
@@ -2335,13 +5277,13 @@
         <v>55</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>28720</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
         <v>1.8</v>
@@ -2353,16 +5295,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="6">
         <v>14360</v>
       </c>
       <c r="L11" s="6">
-        <v>28720</v>
+        <v>0</v>
       </c>
       <c r="M11" s="5">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2372,11 +5314,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2424,22 +5366,22 @@
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E2" s="5">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F2" s="6">
-        <v>303915</v>
+        <v>231960</v>
       </c>
       <c r="G2" s="5">
         <v>24</v>
@@ -2451,36 +5393,36 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="6">
-        <v>101305</v>
+        <v>57990</v>
       </c>
       <c r="L2" s="6">
-        <v>303915</v>
+        <v>231960</v>
       </c>
       <c r="M2" s="5">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5">
-        <v>23.3</v>
+        <v>20.2</v>
       </c>
       <c r="F3" s="6">
-        <v>303450</v>
+        <v>202610</v>
       </c>
       <c r="G3" s="5">
         <v>24</v>
@@ -2492,36 +5434,36 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="6">
-        <v>101150</v>
+        <v>101305</v>
       </c>
       <c r="L3" s="6">
-        <v>303450</v>
+        <v>202610</v>
       </c>
       <c r="M3" s="5">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>22.3</v>
+        <v>20.2</v>
       </c>
       <c r="F4" s="6">
-        <v>289950</v>
+        <v>202300</v>
       </c>
       <c r="G4" s="5">
         <v>24</v>
@@ -2533,21 +5475,21 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4" s="6">
-        <v>57990</v>
+        <v>101150</v>
       </c>
       <c r="L4" s="6">
-        <v>289950</v>
+        <v>202300</v>
       </c>
       <c r="M4" s="5">
-        <v>22.3</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>50</v>
@@ -2556,13 +5498,13 @@
         <v>51</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
+        <v>10.8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>108305</v>
       </c>
       <c r="G5" s="5">
         <v>7.4</v>
@@ -2574,21 +5516,21 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6">
         <v>108305</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
+      <c r="L5" s="6">
+        <v>108305</v>
       </c>
       <c r="M5" s="5">
-        <v>0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -2597,13 +5539,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>16.100000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="F6" s="6">
-        <v>208940</v>
+        <v>104470</v>
       </c>
       <c r="G6" s="5">
         <v>8.6</v>
@@ -2615,21 +5557,21 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="6">
         <v>104470</v>
       </c>
       <c r="L6" s="6">
-        <v>208940</v>
+        <v>104470</v>
       </c>
       <c r="M6" s="5">
-        <v>16.100000000000001</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>27</v>
@@ -2638,13 +5580,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="F7" s="6">
-        <v>86010</v>
+        <v>43005</v>
       </c>
       <c r="G7" s="5">
         <v>4.2</v>
@@ -2656,21 +5598,21 @@
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6">
         <v>43005</v>
       </c>
       <c r="L7" s="6">
-        <v>86010</v>
+        <v>43005</v>
       </c>
       <c r="M7" s="5">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>29</v>
@@ -2679,13 +5621,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="F8" s="6">
-        <v>55830</v>
+        <v>37220</v>
       </c>
       <c r="G8" s="5">
         <v>4</v>
@@ -2697,21 +5639,21 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="6">
         <v>18610</v>
       </c>
       <c r="L8" s="6">
-        <v>55830</v>
+        <v>37220</v>
       </c>
       <c r="M8" s="5">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>32</v>
@@ -2723,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="5">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="F9" s="6">
         <v>24180</v>
@@ -2747,12 +5689,12 @@
         <v>24180</v>
       </c>
       <c r="M9" s="5">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
@@ -2760,14 +5702,14 @@
       <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5">
-        <v>650</v>
+      <c r="D10" s="6">
+        <v>17855</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>650</v>
+        <v>1.8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>17855</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2778,22 +5720,22 @@
       <c r="I10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="5">
-        <v>650</v>
+      <c r="J10" s="6">
+        <v>17855</v>
       </c>
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="5">
-        <v>650</v>
+      <c r="L10" s="6">
+        <v>17855</v>
       </c>
       <c r="M10" s="5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>54</v>
@@ -2805,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="F11" s="6">
         <v>28720</v>
@@ -2829,21 +5771,22 @@
         <v>28720</v>
       </c>
       <c r="M11" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2891,22 +5834,22 @@
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5">
         <v>3</v>
       </c>
       <c r="E2" s="5">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="F2" s="6">
-        <v>173970</v>
+        <v>303915</v>
       </c>
       <c r="G2" s="5">
         <v>24</v>
@@ -2921,36 +5864,36 @@
         <v>3</v>
       </c>
       <c r="K2" s="6">
-        <v>57990</v>
+        <v>101305</v>
       </c>
       <c r="L2" s="6">
-        <v>173970</v>
+        <v>303915</v>
       </c>
       <c r="M2" s="5">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>18.3</v>
+        <v>23.3</v>
       </c>
       <c r="F3" s="6">
-        <v>129015</v>
+        <v>303450</v>
       </c>
       <c r="G3" s="5">
-        <v>16.899999999999999</v>
+        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>52</v>
@@ -2962,33 +5905,33 @@
         <v>3</v>
       </c>
       <c r="K3" s="6">
-        <v>43005</v>
+        <v>101150</v>
       </c>
       <c r="L3" s="6">
-        <v>129015</v>
+        <v>303450</v>
       </c>
       <c r="M3" s="5">
-        <v>18.3</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5">
-        <v>16.899999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="F4" s="6">
-        <v>119330</v>
+        <v>289950</v>
       </c>
       <c r="G4" s="5">
         <v>24</v>
@@ -3000,21 +5943,21 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" s="6">
-        <v>119330</v>
+        <v>57990</v>
       </c>
       <c r="L4" s="6">
-        <v>119330</v>
+        <v>289950</v>
       </c>
       <c r="M4" s="5">
-        <v>16.899999999999999</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>50</v>
@@ -3023,16 +5966,16 @@
         <v>51</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>15.4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>108305</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>52</v>
@@ -3041,39 +5984,39 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="6">
         <v>108305</v>
       </c>
-      <c r="L5" s="6">
-        <v>108305</v>
+      <c r="L5" s="5">
+        <v>0</v>
       </c>
       <c r="M5" s="5">
-        <v>15.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>10.6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F6" s="6">
-        <v>74440</v>
+        <v>208940</v>
       </c>
       <c r="G6" s="5">
-        <v>12.9</v>
+        <v>8.6</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>52</v>
@@ -3082,39 +6025,39 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" s="6">
-        <v>18610</v>
+        <v>104470</v>
       </c>
       <c r="L6" s="6">
-        <v>74440</v>
+        <v>208940</v>
       </c>
       <c r="M6" s="5">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="F7" s="6">
-        <v>53070</v>
+        <v>86010</v>
       </c>
       <c r="G7" s="5">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>52</v>
@@ -3123,39 +6066,39 @@
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="6">
-        <v>17690</v>
+        <v>43005</v>
       </c>
       <c r="L7" s="6">
-        <v>53070</v>
+        <v>86010</v>
       </c>
       <c r="M7" s="5">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="F8" s="6">
-        <v>12090</v>
+        <v>55830</v>
       </c>
       <c r="G8" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>52</v>
@@ -3164,39 +6107,39 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" s="6">
-        <v>12090</v>
+        <v>18610</v>
       </c>
       <c r="L8" s="6">
-        <v>12090</v>
+        <v>55830</v>
       </c>
       <c r="M8" s="5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5950</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
       </c>
       <c r="E9" s="5">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="F9" s="6">
-        <v>5950</v>
+        <v>24180</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>52</v>
@@ -3204,40 +6147,40 @@
       <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="6">
-        <v>5950</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1</v>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>12090</v>
       </c>
       <c r="L9" s="6">
-        <v>5950</v>
+        <v>24180</v>
       </c>
       <c r="M9" s="5">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>650</v>
       </c>
       <c r="E10" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F10" s="6">
-        <v>28720</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>650</v>
       </c>
       <c r="G10" s="5">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>52</v>
@@ -3246,16 +6189,57 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
+        <v>650</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>650</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="E11" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <v>28720</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
         <v>14360</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L11" s="6">
         <v>28720</v>
       </c>
-      <c r="M10" s="5">
-        <v>4.0999999999999996</v>
+      <c r="M11" s="5">
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3265,11 +6249,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3317,22 +6301,22 @@
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5">
-        <v>23.7</v>
+        <v>24.7</v>
       </c>
       <c r="F2" s="6">
-        <v>238660</v>
+        <v>173970</v>
       </c>
       <c r="G2" s="5">
         <v>24</v>
@@ -3344,39 +6328,39 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" s="6">
-        <v>119330</v>
+        <v>57990</v>
       </c>
       <c r="L2" s="6">
-        <v>238660</v>
+        <v>173970</v>
       </c>
       <c r="M2" s="5">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>23</v>
+        <v>18.3</v>
       </c>
       <c r="F3" s="6">
-        <v>231960</v>
+        <v>129015</v>
       </c>
       <c r="G3" s="5">
-        <v>24</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>52</v>
@@ -3385,39 +6369,39 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="6">
-        <v>57990</v>
+        <v>43005</v>
       </c>
       <c r="L3" s="6">
-        <v>231960</v>
+        <v>129015</v>
       </c>
       <c r="M3" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>17.100000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>172020</v>
+        <v>119330</v>
       </c>
       <c r="G4" s="5">
-        <v>16.899999999999999</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>52</v>
@@ -3426,39 +6410,39 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6">
-        <v>43005</v>
+        <v>119330</v>
       </c>
       <c r="L4" s="6">
-        <v>172020</v>
+        <v>119330</v>
       </c>
       <c r="M4" s="5">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>11.1</v>
+        <v>15.4</v>
       </c>
       <c r="F5" s="6">
-        <v>111660</v>
+        <v>108305</v>
       </c>
       <c r="G5" s="5">
-        <v>12.9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>52</v>
@@ -3467,39 +6451,39 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6">
-        <v>18610</v>
+        <v>108305</v>
       </c>
       <c r="L5" s="6">
-        <v>111660</v>
+        <v>108305</v>
       </c>
       <c r="M5" s="5">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="F6" s="6">
-        <v>108305</v>
+        <v>74440</v>
       </c>
       <c r="G6" s="5">
-        <v>10</v>
+        <v>12.9</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>52</v>
@@ -3508,21 +6492,21 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K6" s="6">
-        <v>108305</v>
+        <v>18610</v>
       </c>
       <c r="L6" s="6">
-        <v>108305</v>
+        <v>74440</v>
       </c>
       <c r="M6" s="5">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>61</v>
@@ -3531,13 +6515,13 @@
         <v>62</v>
       </c>
       <c r="D7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
-        <v>8.8000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="F7" s="6">
-        <v>88450</v>
+        <v>53070</v>
       </c>
       <c r="G7" s="5">
         <v>8.4</v>
@@ -3549,21 +6533,21 @@
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="6">
         <v>17690</v>
       </c>
       <c r="L7" s="6">
-        <v>88450</v>
+        <v>53070</v>
       </c>
       <c r="M7" s="5">
-        <v>8.8000000000000007</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -3572,13 +6556,13 @@
         <v>33</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="F8" s="6">
-        <v>24180</v>
+        <v>12090</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
@@ -3590,21 +6574,21 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="6">
         <v>12090</v>
       </c>
       <c r="L8" s="6">
-        <v>24180</v>
+        <v>12090</v>
       </c>
       <c r="M8" s="5">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>35</v>
@@ -3613,13 +6597,13 @@
         <v>36</v>
       </c>
       <c r="D9" s="6">
-        <v>3430</v>
+        <v>5950</v>
       </c>
       <c r="E9" s="5">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F9" s="6">
-        <v>3430</v>
+        <v>5950</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -3631,21 +6615,21 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>3430</v>
+        <v>5950</v>
       </c>
       <c r="K9" s="5">
         <v>1</v>
       </c>
       <c r="L9" s="6">
-        <v>3430</v>
+        <v>5950</v>
       </c>
       <c r="M9" s="5">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>54</v>
@@ -3657,7 +6641,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="5">
-        <v>2.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F10" s="6">
         <v>28720</v>
@@ -3681,7 +6665,7 @@
         <v>28720</v>
       </c>
       <c r="M10" s="5">
-        <v>2.9</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3691,11 +6675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3743,7 +6727,7 @@
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>59</v>
@@ -3752,39 +6736,39 @@
         <v>60</v>
       </c>
       <c r="D2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
-        <v>27.3</v>
+        <v>23.7</v>
       </c>
       <c r="F2" s="6">
-        <v>357990</v>
+        <v>238660</v>
       </c>
       <c r="G2" s="5">
         <v>24</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="6">
         <v>119330</v>
       </c>
       <c r="L2" s="6">
-        <v>357990</v>
+        <v>238660</v>
       </c>
       <c r="M2" s="5">
-        <v>27.3</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>17</v>
@@ -3793,39 +6777,39 @@
         <v>18</v>
       </c>
       <c r="D3" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>22.2</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6">
-        <v>289950</v>
+        <v>231960</v>
       </c>
       <c r="G3" s="5">
         <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="6">
         <v>57990</v>
       </c>
       <c r="L3" s="6">
-        <v>289950</v>
+        <v>231960</v>
       </c>
       <c r="M3" s="5">
-        <v>22.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>27</v>
@@ -3834,39 +6818,39 @@
         <v>28</v>
       </c>
       <c r="D4" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="5">
-        <v>16.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F4" s="6">
-        <v>215025</v>
+        <v>172020</v>
       </c>
       <c r="G4" s="5">
         <v>16.899999999999999</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="6">
         <v>43005</v>
       </c>
       <c r="L4" s="6">
-        <v>215025</v>
+        <v>172020</v>
       </c>
       <c r="M4" s="5">
-        <v>16.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -3875,121 +6859,121 @@
         <v>30</v>
       </c>
       <c r="D5" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="F5" s="6">
-        <v>148880</v>
+        <v>111660</v>
       </c>
       <c r="G5" s="5">
         <v>12.9</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" s="6">
         <v>18610</v>
       </c>
       <c r="L5" s="6">
-        <v>148880</v>
+        <v>111660</v>
       </c>
       <c r="M5" s="5">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>108305</v>
+      </c>
+      <c r="G6" s="5">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>108305</v>
+      </c>
+      <c r="L6" s="6">
+        <v>108305</v>
+      </c>
+      <c r="M6" s="5">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>106140</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F7" s="6">
+        <v>88450</v>
+      </c>
+      <c r="G7" s="5">
         <v>8.4</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>6</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="H7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="6">
         <v>17690</v>
       </c>
-      <c r="L6" s="6">
-        <v>106140</v>
-      </c>
-      <c r="M6" s="5">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F7" s="6">
-        <v>108305</v>
-      </c>
-      <c r="G7" s="5">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>108305</v>
-      </c>
       <c r="L7" s="6">
-        <v>108305</v>
+        <v>88450</v>
       </c>
       <c r="M7" s="5">
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -3998,39 +6982,39 @@
         <v>33</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="F8" s="6">
-        <v>36270</v>
+        <v>24180</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="6">
         <v>12090</v>
       </c>
       <c r="L8" s="6">
-        <v>36270</v>
+        <v>24180</v>
       </c>
       <c r="M8" s="5">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>35</v>
@@ -4039,31 +7023,31 @@
         <v>36</v>
       </c>
       <c r="D9" s="6">
-        <v>3335</v>
+        <v>3430</v>
       </c>
       <c r="E9" s="5">
         <v>0.3</v>
       </c>
       <c r="F9" s="6">
-        <v>3335</v>
+        <v>3430</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <v>3335</v>
+        <v>3430</v>
       </c>
       <c r="K9" s="5">
         <v>1</v>
       </c>
       <c r="L9" s="6">
-        <v>3335</v>
+        <v>3430</v>
       </c>
       <c r="M9" s="5">
         <v>0.3</v>
@@ -4071,7 +7055,7 @@
     </row>
     <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>54</v>
@@ -4080,34 +7064,34 @@
         <v>55</v>
       </c>
       <c r="D10" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="F10" s="6">
-        <v>43080</v>
+        <v>28720</v>
       </c>
       <c r="G10" s="5">
         <v>1.83</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="6">
         <v>14360</v>
       </c>
       <c r="L10" s="6">
-        <v>43080</v>
+        <v>28720</v>
       </c>
       <c r="M10" s="5">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -4117,11 +7101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A2" sqref="A2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4169,22 +7153,22 @@
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5">
-        <v>23.9</v>
+        <v>27.3</v>
       </c>
       <c r="F2" s="6">
-        <v>169260</v>
+        <v>357990</v>
       </c>
       <c r="G2" s="5">
         <v>24</v>
@@ -4196,36 +7180,36 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K2" s="6">
-        <v>12090</v>
+        <v>119330</v>
       </c>
       <c r="L2" s="6">
-        <v>169260</v>
+        <v>357990</v>
       </c>
       <c r="M2" s="5">
-        <v>23.9</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5">
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="F3" s="6">
-        <v>164820</v>
+        <v>289950</v>
       </c>
       <c r="G3" s="5">
         <v>24</v>
@@ -4237,39 +7221,39 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K3" s="6">
-        <v>13735</v>
+        <v>57990</v>
       </c>
       <c r="L3" s="6">
-        <v>164820</v>
+        <v>289950</v>
       </c>
       <c r="M3" s="5">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5">
-        <v>25</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F4" s="6">
-        <v>176900</v>
+        <v>215025</v>
       </c>
       <c r="G4" s="5">
-        <v>24</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>72</v>
@@ -4278,39 +7262,39 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K4" s="6">
-        <v>17690</v>
+        <v>43005</v>
       </c>
       <c r="L4" s="6">
-        <v>176900</v>
+        <v>215025</v>
       </c>
       <c r="M4" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F5" s="6">
-        <v>81300</v>
+        <v>148880</v>
       </c>
       <c r="G5" s="5">
-        <v>13.6</v>
+        <v>12.9</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>72</v>
@@ -4319,39 +7303,39 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K5" s="6">
-        <v>20325</v>
+        <v>18610</v>
       </c>
       <c r="L5" s="6">
-        <v>81300</v>
+        <v>148880</v>
       </c>
       <c r="M5" s="5">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E6" s="5">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="F6" s="6">
-        <v>57990</v>
+        <v>106140</v>
       </c>
       <c r="G6" s="5">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>72</v>
@@ -4360,80 +7344,80 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6">
+        <v>17690</v>
+      </c>
+      <c r="L6" s="6">
+        <v>106140</v>
+      </c>
+      <c r="M6" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="6">
-        <v>57990</v>
-      </c>
-      <c r="L6" s="6">
-        <v>57990</v>
-      </c>
-      <c r="M6" s="5">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1220</v>
-      </c>
       <c r="E7" s="5">
-        <v>0.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F7" s="6">
-        <v>1220</v>
+        <v>108305</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1220</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <v>1</v>
       </c>
+      <c r="K7" s="6">
+        <v>108305</v>
+      </c>
       <c r="L7" s="6">
-        <v>1220</v>
+        <v>108305</v>
       </c>
       <c r="M7" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
       <c r="F8" s="6">
-        <v>57440</v>
+        <v>36270</v>
       </c>
       <c r="G8" s="5">
-        <v>8.4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>72</v>
@@ -4442,16 +7426,98 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="6">
+        <v>12090</v>
+      </c>
+      <c r="L8" s="6">
+        <v>36270</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3335</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3335</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>3335</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>3335</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43080</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6">
         <v>14360</v>
       </c>
-      <c r="L8" s="6">
-        <v>57440</v>
-      </c>
-      <c r="M8" s="5">
-        <v>8.1</v>
+      <c r="L10" s="6">
+        <v>43080</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -4461,11 +7527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4513,22 +7579,22 @@
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5">
         <v>14</v>
       </c>
       <c r="E2" s="5">
-        <v>24.5</v>
+        <v>23.9</v>
       </c>
       <c r="F2" s="6">
-        <v>247660</v>
+        <v>169260</v>
       </c>
       <c r="G2" s="5">
         <v>24</v>
@@ -4543,33 +7609,33 @@
         <v>14</v>
       </c>
       <c r="K2" s="6">
-        <v>17690</v>
+        <v>12090</v>
       </c>
       <c r="L2" s="6">
-        <v>247660</v>
+        <v>169260</v>
       </c>
       <c r="M2" s="5">
-        <v>24.5</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="F3" s="6">
-        <v>241800</v>
+        <v>164820</v>
       </c>
       <c r="G3" s="5">
         <v>24</v>
@@ -4581,36 +7647,36 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K3" s="6">
-        <v>12090</v>
+        <v>13735</v>
       </c>
       <c r="L3" s="6">
-        <v>241800</v>
+        <v>164820</v>
       </c>
       <c r="M3" s="5">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6">
-        <v>233495</v>
+        <v>176900</v>
       </c>
       <c r="G4" s="5">
         <v>24</v>
@@ -4622,21 +7688,21 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K4" s="6">
-        <v>13735</v>
+        <v>17690</v>
       </c>
       <c r="L4" s="6">
-        <v>233495</v>
+        <v>176900</v>
       </c>
       <c r="M4" s="5">
-        <v>23.1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>68</v>
@@ -4645,13 +7711,13 @@
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5">
-        <v>14.1</v>
+        <v>11.5</v>
       </c>
       <c r="F5" s="6">
-        <v>142275</v>
+        <v>81300</v>
       </c>
       <c r="G5" s="5">
         <v>13.6</v>
@@ -4663,21 +7729,21 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K5" s="6">
         <v>20325</v>
       </c>
       <c r="L5" s="6">
-        <v>142275</v>
+        <v>81300</v>
       </c>
       <c r="M5" s="5">
-        <v>14.1</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>17</v>
@@ -4689,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>5.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F6" s="6">
         <v>57990</v>
@@ -4713,12 +7779,12 @@
         <v>57990</v>
       </c>
       <c r="M6" s="5">
-        <v>5.7</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
@@ -4727,13 +7793,13 @@
         <v>36</v>
       </c>
       <c r="D7" s="6">
-        <v>2575</v>
+        <v>1220</v>
       </c>
       <c r="E7" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="6">
-        <v>2575</v>
+        <v>1220</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -4741,25 +7807,25 @@
       <c r="H7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>2575</v>
+        <v>1220</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
       <c r="L7" s="6">
-        <v>2575</v>
+        <v>1220</v>
       </c>
       <c r="M7" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>54</v>
@@ -4768,13 +7834,13 @@
         <v>55</v>
       </c>
       <c r="D8" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="F8" s="6">
-        <v>86160</v>
+        <v>57440</v>
       </c>
       <c r="G8" s="5">
         <v>8.4</v>
@@ -4786,16 +7852,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8" s="6">
         <v>14360</v>
       </c>
       <c r="L8" s="6">
-        <v>86160</v>
+        <v>57440</v>
       </c>
       <c r="M8" s="5">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
